--- a/IPC2024_base2010/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/indprod_4_2024.xlsx
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.4584219790608</v>
+        <v>155.4678663233491</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.2190007120251</v>
+        <v>120.2633728781286</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.2599666808919</v>
+        <v>135.3596895696274</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="D111">
-        <v>151.4160021167002</v>
+        <v>152.7734568811492</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2938,7 +2938,7 @@
         <v>131</v>
       </c>
       <c r="D121">
-        <v>147.2930265498009</v>
+        <v>147.293026549801</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>130.6985885343425</v>
+        <v>130.710410042053</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>121.4815493081834</v>
+        <v>122.519542247291</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>131.6533632700093</v>
+        <v>132.7000712414488</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4086,7 +4086,7 @@
         <v>213</v>
       </c>
       <c r="D203">
-        <v>117.9779961781924</v>
+        <v>119.0896209097043</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>78.83156481685545</v>
+        <v>78.83156481685548</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>114.0593770316369</v>
+        <v>111.9976098814931</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>190.9638241908531</v>
+        <v>195.1840192005957</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4464,7 +4464,7 @@
         <v>240</v>
       </c>
       <c r="D230">
-        <v>71.04107908698224</v>
+        <v>64.63506270688443</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>133.196772160629</v>
+        <v>134.1560734831072</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>228.3799637361704</v>
+        <v>281.6819843463888</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>113.4619985190549</v>
+        <v>115.9891433481159</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>125.6754496405006</v>
+        <v>117.7639966308485</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>119.3626348291464</v>
+        <v>116.219629297443</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.7549562664205</v>
+        <v>144.7591767454172</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.5294473270011</v>
+        <v>121.5989387924712</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.827311250407</v>
+        <v>142.4825341329009</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>121</v>
       </c>
       <c r="D390">
-        <v>154.240145</v>
+        <v>155.6229183976108</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6844,7 +6844,7 @@
         <v>131</v>
       </c>
       <c r="D400">
-        <v>144.3355639999999</v>
+        <v>144.335564</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>135.1821384994927</v>
+        <v>135.1943655381357</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>146.4321856120909</v>
+        <v>147.6833679981325</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>138.5348870191825</v>
+        <v>139.6363064357763</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7992,7 +7992,7 @@
         <v>213</v>
       </c>
       <c r="D482">
-        <v>115.4875081600939</v>
+        <v>116.4454279709346</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>90.94009653130517</v>
+        <v>90.94009653130516</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>83.98289338148902</v>
+        <v>83.98289338148905</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>113.99598541969</v>
+        <v>111.9353641529143</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>160.5566771405406</v>
+        <v>164.104891</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8370,7 +8370,7 @@
         <v>240</v>
       </c>
       <c r="D509">
-        <v>70.69847406368683</v>
+        <v>64.32335154696132</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>133.6205735416779</v>
+        <v>134.7084129218843</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>293.9656827327028</v>
+        <v>362.5748751652603</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>113.2148635036936</v>
+        <v>115.7365038820636</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>126.5422230337815</v>
+        <v>118.5762053737496</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>128.3931398620656</v>
+        <v>125.5143738702863</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>156.6492596572614</v>
+        <v>156.6514722746157</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.4046578494777</v>
+        <v>120.4491992911075</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>123.0841279570227</v>
+        <v>124.6917956278192</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10610,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="D669">
-        <v>186.684823</v>
+        <v>188.358465144087</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>103.0520680134085</v>
+        <v>103.0613889313331</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>118.368617479321</v>
+        <v>119.3800121302386</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>125.6239450671005</v>
+        <v>126.6227162449832</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11898,7 +11898,7 @@
         <v>213</v>
       </c>
       <c r="D761">
-        <v>119.8817550699361</v>
+        <v>121.1117982592065</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.1761374550366</v>
+        <v>92.17613745503658</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>61.84435307373221</v>
+        <v>61.84435307373223</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>90.4315360514576</v>
+        <v>88.79687193860505</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>104.091515027027</v>
+        <v>106.39188</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12276,7 +12276,7 @@
         <v>240</v>
       </c>
       <c r="D788">
-        <v>70.69847406368683</v>
+        <v>64.32335154696132</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>129.6553323685146</v>
+        <v>130.1568010746043</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>150.4768403150121</v>
+        <v>185.5969073848933</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>119.120658232306</v>
+        <v>121.7738386752327</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>116.8152993723668</v>
+        <v>109.4616057557012</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>91.05200506959433</v>
+        <v>87.31518506456764</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>159.612318975398</v>
+        <v>159.6256252061577</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>132.8400035067027</v>
+        <v>133.6632951384065</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14516,7 +14516,7 @@
         <v>121</v>
       </c>
       <c r="D948">
-        <v>145.555262</v>
+        <v>146.860174830417</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>131.8750129158752</v>
+        <v>133.0018122778436</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15804,7 +15804,7 @@
         <v>213</v>
       </c>
       <c r="D1040">
-        <v>118.464413763516</v>
+        <v>119.6041786147767</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.85009250002695</v>
+        <v>97.85009250002693</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>79.85776718243827</v>
+        <v>81.62257971685678</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16182,7 +16182,7 @@
         <v>240</v>
       </c>
       <c r="D1067">
-        <v>70.69847406368683</v>
+        <v>64.32335154696132</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>121.1836884894131</v>
+        <v>121.8937390817664</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>193.6989074867469</v>
+        <v>238.9066524663482</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>116.6030520327295</v>
+        <v>119.2001577054959</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>133.8274663096259</v>
+        <v>125.4028319507431</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>116.6336539875095</v>
+        <v>113.6921631907036</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>191.4202975698511</v>
+        <v>191.4510353558783</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>134.4623247595479</v>
+        <v>135.6526290021284</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18422,7 +18422,7 @@
         <v>121</v>
       </c>
       <c r="D1227">
-        <v>133.759688</v>
+        <v>134.9588527066925</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>122.868117547326</v>
+        <v>123.9179579484558</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19710,7 +19710,7 @@
         <v>213</v>
       </c>
       <c r="D1319">
-        <v>119.4606051607438</v>
+        <v>120.6635671025719</v>
       </c>
     </row>
     <row r="1320" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>98.24516222413247</v>
+        <v>96.46925695964839</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>97.83783783783781</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20088,7 +20088,7 @@
         <v>240</v>
       </c>
       <c r="D1346">
-        <v>141.3969473075951</v>
+        <v>128.6467023480663</v>
       </c>
     </row>
     <row r="1347" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>132.7061396570355</v>
+        <v>133.4658907656809</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>108.5024179765095</v>
+        <v>133.8259972635416</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>105.9626047047431</v>
+        <v>108.3227151562478</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>140.816307</v>
+        <v>131.9517149176955</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>102.5661942665636</v>
+        <v>98.9890400931337</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>150.7657681702192</v>
+        <v>150.7719330080014</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.5638722181612</v>
+        <v>118.6012193283213</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>126.4779049366974</v>
+        <v>127.5428878942334</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22328,7 +22328,7 @@
         <v>121</v>
       </c>
       <c r="D1506">
-        <v>147.215679</v>
+        <v>148.5354775818311</v>
       </c>
     </row>
     <row r="1507" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>125.005569549873</v>
+        <v>125.0168761318404</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>115.2163961913488</v>
+        <v>116.2008568472847</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23616,7 +23616,7 @@
         <v>213</v>
       </c>
       <c r="D1598">
-        <v>119.5281923446396</v>
+        <v>120.7354856483009</v>
       </c>
     </row>
     <row r="1599" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>71.53777114220624</v>
+        <v>71.53777114220627</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>133.2796517271707</v>
+        <v>130.8704538614181</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>84.73001351351353</v>
+        <v>86.60250000000001</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -23994,7 +23994,7 @@
         <v>240</v>
       </c>
       <c r="D1625">
-        <v>70.69847406368683</v>
+        <v>64.32335154696132</v>
       </c>
     </row>
     <row r="1626" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>150.4445869234277</v>
+        <v>152.005856823248</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>150.637863539874</v>
+        <v>185.7955121169499</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>101.0018571041788</v>
+        <v>103.2514765735866</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>120.6650468947228</v>
+        <v>113.0690060518546</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>124.39898076199</v>
+        <v>120.9125544395387</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>150.7397399850953</v>
+        <v>150.7522887689051</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0365473648206</v>
+        <v>119.0906087583467</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>137.9868129294563</v>
+        <v>139.2114620044041</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26234,7 +26234,7 @@
         <v>121</v>
       </c>
       <c r="D1785">
-        <v>165.128995</v>
+        <v>166.6093876789631</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.85637660577518</v>
+        <v>97.86522758055264</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>116.0975649604611</v>
+        <v>117.0895547182706</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>146.5721144219791</v>
+        <v>147.7374336872498</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27522,7 +27522,7 @@
         <v>213</v>
       </c>
       <c r="D1877">
-        <v>119.586241282354</v>
+        <v>120.7972591594798</v>
       </c>
     </row>
     <row r="1878" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>104.4685103896332</v>
+        <v>102.5801102549732</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>313.5700404634375</v>
+        <v>320.4997651145632</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27900,7 +27900,7 @@
         <v>240</v>
       </c>
       <c r="D1904">
-        <v>70.69847406368683</v>
+        <v>64.32335154696132</v>
       </c>
     </row>
     <row r="1905" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>136.6232087264827</v>
+        <v>137.3482800163306</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>208.0756936701284</v>
+        <v>256.6388632715698</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>127.2526024149355</v>
+        <v>130.0869060617504</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>122.9166231921407</v>
+        <v>115.1788423346107</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>112.4953052142315</v>
+        <v>109.3510458730288</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>171.6720624861705</v>
+        <v>171.6799678024941</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.6269230910155</v>
+        <v>127.6725892775878</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>131.3383982283665</v>
+        <v>132.6514562609138</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30140,7 +30140,7 @@
         <v>121</v>
       </c>
       <c r="D2064">
-        <v>88.085593</v>
+        <v>88.87528633640846</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>111.2045775005994</v>
+        <v>111.214635801803</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>118.3393752077702</v>
+        <v>119.350519999581</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>142.5242911202992</v>
+        <v>143.6574282307688</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31428,7 +31428,7 @@
         <v>213</v>
       </c>
       <c r="D2156">
-        <v>120.0052741690882</v>
+        <v>121.2433015109287</v>
       </c>
     </row>
     <row r="2157" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>89.65948398555358</v>
+        <v>89.65948398555359</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>123.5085405726276</v>
+        <v>121.2759678693398</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>183.4459459459459</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>113.4868807909809</v>
+        <v>113.6779865704504</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>88.78123122251644</v>
+        <v>109.5020463895155</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>111.9674171552959</v>
+        <v>114.4612730980836</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>122.007372</v>
+        <v>114.326829832295</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>106.3083038548968</v>
+        <v>102.0148294441361</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>168.8111579282551</v>
+        <v>168.8273260447734</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>133.07302832665</v>
+        <v>134.2421726170654</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34046,7 +34046,7 @@
         <v>121</v>
       </c>
       <c r="D2343">
-        <v>193.737489</v>
+        <v>195.4743587747861</v>
       </c>
     </row>
     <row r="2344" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>109.531392063706</v>
+        <v>110.4672774900955</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>127.2570089300804</v>
+        <v>128.2687637562407</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35334,7 +35334,7 @@
         <v>213</v>
       </c>
       <c r="D2435">
-        <v>119.2661601122943</v>
+        <v>120.4566919514502</v>
       </c>
     </row>
     <row r="2436" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.69826515819453</v>
+        <v>96.6982651581945</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>85.01326112634584</v>
+        <v>85.01326112634585</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>109.882383324894</v>
+        <v>107.8961206061705</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>97.98356793260803</v>
+        <v>100.1489506493507</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>114.8578686595662</v>
+        <v>115.1040973897301</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>81.78710886663022</v>
+        <v>100.8755529277537</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>101.2540437149714</v>
+        <v>103.5092801495106</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>122.8092657650112</v>
+        <v>115.0782432142341</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>97.97189563408996</v>
+        <v>95.36095469410492</v>
       </c>
     </row>
     <row r="2496" spans="1:4">

--- a/IPC2024_base2010/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/indprod_4_2024.xlsx
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1156.636762777282</v>
+        <v>1186.66367769881</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>143.0500795513971</v>
+        <v>143.1369934860034</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>127.9303796093049</v>
+        <v>131.5543280151288</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>149.2646276900623</v>
+        <v>158.0065242866133</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>122.519542247291</v>
+        <v>125.8635055268897</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>132.7000712414488</v>
+        <v>130.1827362014378</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>87.50242660301303</v>
+        <v>94.93565576210666</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>88.12509564847501</v>
+        <v>99.33474177275022</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>134.1560734831072</v>
+        <v>142.6806367386494</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.8092657772488</v>
+        <v>113.9457023050519</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>417.9095079164761</v>
+        <v>428.7586644044428</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>177.0092307025718</v>
+        <v>177.2916139144835</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>126.5002800536136</v>
+        <v>130.0837173078186</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>183.0561955635618</v>
+        <v>193.7771437060616</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>147.6833679981325</v>
+        <v>151.7141352580725</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>139.6363064357763</v>
+        <v>136.9873902463576</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>114.377105</v>
+        <v>124.0933067674769</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>79.53646938744659</v>
+        <v>89.65362919586212</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>134.7084129218843</v>
+        <v>144.4045120443767</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.1005</v>
+        <v>116.2157620554495</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1026.432177273483</v>
+        <v>1053.078910847561</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>119.1897677137147</v>
+        <v>119.1991622988992</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>162.077339256963</v>
+        <v>166.6685858163356</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>132.8812584637966</v>
+        <v>140.6636395884268</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>119.3800121302386</v>
+        <v>122.6382872556534</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>126.6227162449832</v>
+        <v>124.2206693019572</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>66.091302</v>
+        <v>71.70568107793916</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>90.42088254264164</v>
+        <v>101.92255624965</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>130.1568010746043</v>
+        <v>134.5756560324925</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.5041594642034</v>
+        <v>102.6496016872086</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>546.9424625503324</v>
+        <v>561.1413842157096</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>137.3645746859516</v>
+        <v>137.4067564496989</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>126.8520653856758</v>
+        <v>130.4454678404627</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>143.3297066424357</v>
+        <v>151.7240160918511</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>133.0018122778436</v>
+        <v>136.6318713542929</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>68.463735</v>
+        <v>74.2796494963065</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>95.76434102543895</v>
+        <v>107.9457107739796</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.85009250002693</v>
+        <v>97.85009250002692</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>121.8937390817664</v>
+        <v>128.1629943461732</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.3973549957902</v>
+        <v>106.5408060219988</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6642.729406377621</v>
+        <v>6815.178248703104</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>132.6924080316959</v>
+        <v>132.7342984012139</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>121.5978733592204</v>
+        <v>125.042437665662</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>146.5879810179397</v>
+        <v>155.1731159704543</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>123.9179579484558</v>
+        <v>127.300088614812</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>83.28362199999999</v>
+        <v>90.35846862492794</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>133.4658907656809</v>
+        <v>140.1730720213926</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.804858</v>
+        <v>128.973125381922</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>895.2112942785864</v>
+        <v>918.4514628735652</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>138.0168502129338</v>
+        <v>138.0570508741245</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>120.8808158852304</v>
+        <v>124.3050677428409</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>146.5328311654259</v>
+        <v>155.1147361878795</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>116.2008568472847</v>
+        <v>119.3723623167627</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>100.644007</v>
+        <v>109.1935980977932</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>94.9909556290818</v>
+        <v>107.0739495795929</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>152.005856823248</v>
+        <v>165.8527126235022</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.138971</v>
+        <v>113.2862626710348</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>377.1609211412235</v>
+        <v>386.9522223131141</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>134.1138737752799</v>
+        <v>134.1536420867526</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>139.4844428719405</v>
+        <v>143.4356890569886</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>128.1245774332738</v>
+        <v>135.6283767240488</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>117.0895547182706</v>
+        <v>120.2853156901176</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>147.7374336872498</v>
+        <v>144.9348382171576</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>53.008748</v>
+        <v>57.51177936287055</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>91.0467615554433</v>
+        <v>102.6280480242704</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.64918288282541</v>
+        <v>91.6491828828254</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>137.3482800163306</v>
+        <v>143.7466430898103</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>114.9703928250578</v>
+        <v>115.1303002123044</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>192.1312103446807</v>
+        <v>197.1190403120919</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>183.5463736373736</v>
+        <v>183.7133704608759</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>93.04079631433595</v>
+        <v>95.67640989188997</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>143.9859761284742</v>
+        <v>152.4187209398049</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>119.350519999581</v>
+        <v>122.6079901872679</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>143.6574282307688</v>
+        <v>140.9322309158015</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>53.882335</v>
+        <v>58.45957656038731</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>84.64737455037704</v>
+        <v>95.41464926453649</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>113.6779865704504</v>
+        <v>115.3583141738976</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.5886521851069</v>
+        <v>100.7218984110108</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1425.06757883357</v>
+        <v>1462.063102686986</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>139.374812185239</v>
+        <v>139.5015996518906</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>130.5980101253804</v>
+        <v>134.2975258466894</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>117.6241735371981</v>
+        <v>124.5130016422201</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>110.4672774900955</v>
+        <v>113.4822946273496</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>128.2687637562407</v>
+        <v>125.8354911097252</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>60.546817</v>
+        <v>65.69019853908075</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>94.17592220997281</v>
+        <v>106.1552426706517</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.6982651581945</v>
+        <v>96.69826515819449</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>115.1040973897301</v>
+        <v>117.2700960464895</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.4722203542584</v>
+        <v>112.6282316450168</v>
       </c>
     </row>
     <row r="2476" spans="1:4">

--- a/IPC2024_base2010/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/indprod_4_2024.xlsx
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>131.5543280151288</v>
+        <v>138.896635859255</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.2633728781286</v>
+        <v>120.2715533262127</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>158.0065242866133</v>
+        <v>155.2472238838569</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>125.8635055268897</v>
+        <v>131.9539078494146</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>130.1827362014378</v>
+        <v>125.8265098523413</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4114,7 +4114,7 @@
         <v>215</v>
       </c>
       <c r="D205">
-        <v>109.5181671405394</v>
+        <v>104.9027586681881</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>94.87365056559798</v>
+        <v>94.87365056559797</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>195.1840192005957</v>
+        <v>209.5935776650692</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4464,7 +4464,7 @@
         <v>240</v>
       </c>
       <c r="D230">
-        <v>64.63506270688443</v>
+        <v>86.65886185145244</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>128.6771779015098</v>
+        <v>128.9087749988776</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>281.6819843463888</v>
+        <v>285.7863629634165</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>149.8171837696557</v>
+        <v>143.3076869826964</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>110.6654376573993</v>
+        <v>110.5877231391034</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>130.0837173078186</v>
+        <v>137.343947452983</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.5989387924712</v>
+        <v>121.6049025396676</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>193.7771437060616</v>
+        <v>190.3931736257932</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>151.7141352580725</v>
+        <v>159.0554222965001</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>136.9873902463576</v>
+        <v>132.403463864892</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8020,7 +8020,7 @@
         <v>215</v>
       </c>
       <c r="D484">
-        <v>110.5826696495153</v>
+        <v>105.9224</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>90.94009653130516</v>
+        <v>90.94009653130514</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>164.104891</v>
+        <v>176.2200171812081</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8370,7 +8370,7 @@
         <v>240</v>
       </c>
       <c r="D509">
-        <v>64.32335154696132</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>136.7231400310537</v>
+        <v>137.0366100398895</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>362.5748751652603</v>
+        <v>367.8579413441389</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>163.7236379874765</v>
+        <v>156.6099113199978</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>112.5613542469951</v>
+        <v>112.4823083261619</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>166.6685858163356</v>
+        <v>175.97069</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.4491992911075</v>
+        <v>120.4631245790486</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>140.6636395884268</v>
+        <v>138.2072015449858</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>122.6382872556534</v>
+        <v>128.572624666689</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>124.2206693019572</v>
+        <v>120.063948</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11926,7 +11926,7 @@
         <v>215</v>
       </c>
       <c r="D763">
-        <v>104.399701715138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.17613745503658</v>
+        <v>92.17613745503657</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>106.39188</v>
+        <v>114.2463140939597</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12276,7 +12276,7 @@
         <v>240</v>
       </c>
       <c r="D788">
-        <v>64.32335154696132</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>118.5876045487564</v>
+        <v>118.7453387610152</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>185.5969073848933</v>
+        <v>188.301233612304</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>142.3592646871031</v>
+        <v>136.1738115050478</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>94.19620632272155</v>
+        <v>94.13005727967222</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>130.4454678404627</v>
+        <v>137.725888</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>151.7240160918511</v>
+        <v>149.0744284207075</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>136.6318713542929</v>
+        <v>143.2433435450886</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15832,7 +15832,7 @@
         <v>215</v>
       </c>
       <c r="D1042">
-        <v>104.8424357941834</v>
+        <v>100.424076</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>81.62257971685678</v>
+        <v>87.64840774964486</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16182,7 +16182,7 @@
         <v>240</v>
       </c>
       <c r="D1067">
-        <v>64.32335154696132</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>123.0178624855366</v>
+        <v>123.2089729192769</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>238.9066524663482</v>
+        <v>242.387753176867</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>148.553980532468</v>
+        <v>142.0993694215497</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>113.2451225634024</v>
+        <v>113.1655964680317</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>125.042437665662</v>
+        <v>132.021304</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>155.1731159704543</v>
+        <v>152.4632959593669</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>127.300088614812</v>
+        <v>133.4600056782346</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19738,7 +19738,7 @@
         <v>215</v>
       </c>
       <c r="D1321">
-        <v>104.399701715138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1322" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>100</v>
+        <v>107.3825503355705</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20088,7 +20088,7 @@
         <v>240</v>
       </c>
       <c r="D1346">
-        <v>128.6467023480663</v>
+        <v>172.481875</v>
       </c>
     </row>
     <row r="1347" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>116.6088294918493</v>
+        <v>116.7631595934386</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>133.8259972635416</v>
+        <v>135.7759713197292</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>173.153900311336</v>
+        <v>165.6304325130152</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>112.4859622207832</v>
+        <v>112.406969243806</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>124.3050677428409</v>
+        <v>131.24278</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.6012193283213</v>
+        <v>118.6088049817671</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>155.1147361878795</v>
+        <v>152.4059356749318</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>119.3723623167627</v>
+        <v>125.1486650635821</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23644,7 +23644,7 @@
         <v>215</v>
       </c>
       <c r="D1600">
-        <v>105.1336378821775</v>
+        <v>100.703006</v>
       </c>
     </row>
     <row r="1601" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>86.60250000000001</v>
+        <v>92.99597315436242</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -23994,7 +23994,7 @@
         <v>240</v>
       </c>
       <c r="D1625">
-        <v>64.32335154696132</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="1626" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>134.9361147152409</v>
+        <v>135.1855849485271</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>185.7955121169499</v>
+        <v>188.5027322071591</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>120.6132227115181</v>
+        <v>115.372626366358</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>108.7946033211096</v>
+        <v>108.7182025914033</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>143.4356890569886</v>
+        <v>151.4411192148595</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0906087583467</v>
+        <v>119.1068952670087</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>135.6283767240488</v>
+        <v>133.2598705107166</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>120.2853156901176</v>
+        <v>126.1057952880597</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>144.9348382171576</v>
+        <v>140.0849711797443</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27550,7 +27550,7 @@
         <v>215</v>
       </c>
       <c r="D1879">
-        <v>105.086679940343</v>
+        <v>100.658027</v>
       </c>
     </row>
     <row r="1880" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.6491828828254</v>
+        <v>91.64918288282539</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>320.4997651145632</v>
+        <v>344.1608215995309</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27900,7 +27900,7 @@
         <v>240</v>
       </c>
       <c r="D1904">
-        <v>64.32335154696132</v>
+        <v>86.240938</v>
       </c>
     </row>
     <row r="1905" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>117.1153572342909</v>
+        <v>117.2784368302491</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>256.6388632715698</v>
+        <v>260.3783394228555</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>145.5037788853467</v>
+        <v>139.1816978175244</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>95.88405638608944</v>
+        <v>95.81672205468443</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>95.67640989188997</v>
+        <v>101.0163</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.6725892775878</v>
+        <v>127.6815244158303</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>152.4187209398049</v>
+        <v>149.757001495145</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>122.6079901872679</v>
+        <v>128.5408615551094</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>140.9322309158015</v>
+        <v>136.2163007113357</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31456,7 +31456,7 @@
         <v>215</v>
       </c>
       <c r="D2158">
-        <v>104.399701715138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2159" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>187.5</v>
+        <v>201.3422818791946</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>127.5278811481045</v>
+        <v>127.6353167896191</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>109.5020463895155</v>
+        <v>111.0975969845057</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>128.3842605792814</v>
+        <v>122.8060157430823</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>108.7308010783514</v>
+        <v>108.6544451536056</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>134.2975258466894</v>
+        <v>141.792937</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>124.5130016422201</v>
+        <v>122.338605508067</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>113.4822946273496</v>
+        <v>118.9735832091395</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>125.8354911097252</v>
+        <v>121.624734</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35362,7 +35362,7 @@
         <v>215</v>
       </c>
       <c r="D2437">
-        <v>104.399701715138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2438" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.69826515819449</v>
+        <v>96.69826515819447</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>100.1489506493507</v>
+        <v>107.5424973415846</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>121.6236938970144</v>
+        <v>121.7911797399114</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>100.8755529277537</v>
+        <v>102.3454071798041</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>130.1290523740714</v>
+        <v>124.4749970313849</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>87.68405160911918</v>
+        <v>87.62247570992893</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/indprod_4_2024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>189.4093890510911</v>
+        <v>189.6934491857695</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.4678663233491</v>
+        <v>153.5445268726179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>360.2864024035153</v>
+        <v>360.3853102324366</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>521.7269845565221</v>
+        <v>521.1170243913987</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>422.2405175093232</v>
+        <v>550.5826475895069</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1186.66367769881</v>
+        <v>1156.636762777282</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>173.3037500520615</v>
+        <v>182.3046927117145</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>154.018656649613</v>
+        <v>153.9030659117639</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>682.8171273667722</v>
+        <v>670.75218514448</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>452.4906552344118</v>
+        <v>363.8619298006157</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>143.1369934860034</v>
+        <v>143.0500795513971</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>125.4264370042039</v>
+        <v>120.0074079834027</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>121.2809737624959</v>
+        <v>117.8377062929355</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>153.1126564451455</v>
+        <v>136.5220759967912</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.2715533262127</v>
+        <v>120.0364093177682</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>135.3596895696274</v>
+        <v>134.3562745662416</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="D111">
-        <v>152.7734568811492</v>
+        <v>151.4160021167002</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>130.710410042053</v>
+        <v>129.749472004551</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>155.2472238838569</v>
+        <v>158.2987238025991</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3190,7 +3190,7 @@
         <v>149</v>
       </c>
       <c r="D139">
-        <v>122.12457327761</v>
+        <v>128.9559589058384</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3218,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>137.9186992554033</v>
+        <v>135.6540476388257</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>135.5463863621573</v>
+        <v>138.5356408694001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>131.9539078494146</v>
+        <v>134.1355720539999</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3442,7 +3442,7 @@
         <v>167</v>
       </c>
       <c r="D157">
-        <v>133.8458597992697</v>
+        <v>132.3386706271776</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>87.50242660301303</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>99.33474177275022</v>
+        <v>93.46063553284237</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>94.87365056559797</v>
+        <v>95.11240778678798</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>78.83156481685548</v>
+        <v>83.24123278528683</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>111.9976098814931</v>
+        <v>120.5027467771931</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,7 +4324,7 @@
         <v>230</v>
       </c>
       <c r="D220">
-        <v>167.0515970339069</v>
+        <v>114.7323575508408</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>112.1813079398574</v>
+        <v>109.5924861325384</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>209.5935776650692</v>
+        <v>195.1840192005957</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>142.6806367386494</v>
+        <v>122.1824696609244</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>128.9087749988776</v>
+        <v>126.6015217613643</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>285.7863629634165</v>
+        <v>228.9405409952795</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9457023050519</v>
+        <v>113.8092657772488</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>115.9891433481159</v>
+        <v>112.3364558513073</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>117.7639966308485</v>
+        <v>125.6754496405006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4828,7 +4828,7 @@
         <v>266</v>
       </c>
       <c r="D256">
-        <v>147.6458146702129</v>
+        <v>150.8427572561092</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>116.219629297443</v>
+        <v>131.9463077938391</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>143.3076869826964</v>
+        <v>127.4768366701283</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>124.5836491225677</v>
+        <v>106.8745260369328</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>122.0416296590343</v>
+        <v>119.7225796332061</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,7 +5066,7 @@
         <v>283</v>
       </c>
       <c r="D273">
-        <v>107.8992433889131</v>
+        <v>110.3445067453738</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>110.5877231391034</v>
+        <v>141.1194907667752</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>174.9276777042011</v>
+        <v>175.2748900536817</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.7591767454172</v>
+        <v>143.7994531263738</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>153.3321239606261</v>
+        <v>153.5166027742567</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>348.56214856145</v>
+        <v>348.3860504748088</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5766,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D323">
-        <v>289.8268753708725</v>
+        <v>377.9212125960071</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>428.7586644044428</v>
+        <v>417.9095079164761</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>66</v>
       </c>
       <c r="D335">
-        <v>180.763152767605</v>
+        <v>190.1515172579898</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>165.6807977510917</v>
+        <v>165.46302308547</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5990,7 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D339">
-        <v>219.9852730049665</v>
+        <v>216.0982738331745</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="D341">
-        <v>1524.037538062644</v>
+        <v>1039.616571741467</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>177.2916139144835</v>
+        <v>177.0092307025718</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>128.8984050487647</v>
+        <v>121.9380169170067</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6228,7 +6228,7 @@
         <v>87</v>
       </c>
       <c r="D356">
-        <v>119.5833955702546</v>
+        <v>116.1883237540192</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="D357">
-        <v>159.7695871529958</v>
+        <v>142.4576924317925</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.6049025396676</v>
+        <v>121.1320840174678</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>142.4825341329009</v>
+        <v>141.9382393219179</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6704,7 +6704,7 @@
         <v>121</v>
       </c>
       <c r="D390">
-        <v>155.6229183976108</v>
+        <v>154.240145</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>135.1943655381357</v>
+        <v>134.200463</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>190.3931736257932</v>
+        <v>194.1354933872261</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
       <c r="D418">
-        <v>132.0076408551286</v>
+        <v>139.391864</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7124,7 +7124,7 @@
         <v>151</v>
       </c>
       <c r="D420">
-        <v>139.4254606641959</v>
+        <v>137.3659353161155</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7180,7 +7180,7 @@
         <v>155</v>
       </c>
       <c r="D424">
-        <v>140.1558228870963</v>
+        <v>143.246731</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>159.0554222965001</v>
+        <v>161.6851702670223</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7348,7 +7348,7 @@
         <v>167</v>
       </c>
       <c r="D436">
-        <v>144.0012997975766</v>
+        <v>142.3797539376779</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>114.377105</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>89.65362919586212</v>
+        <v>84.35201031316957</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>90.94009653130514</v>
+        <v>91.1689546453666</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>83.98289338148905</v>
+        <v>88.68071557620151</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>111.9353641529143</v>
+        <v>120.4357740866434</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8230,7 +8230,7 @@
         <v>230</v>
       </c>
       <c r="D499">
-        <v>165.4628696898217</v>
+        <v>113.6412070504635</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>109.6635576064213</v>
+        <v>107.1328382324602</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>176.2200171812081</v>
+        <v>164.104891</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>144.4045120443767</v>
+        <v>121.1239893192569</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>137.0366100398895</v>
+        <v>133.9155857704338</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>367.8579413441389</v>
+        <v>294.6872454915479</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>115.7365038820636</v>
+        <v>112.0917724145195</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>118.5762053737496</v>
+        <v>126.5422230337815</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8734,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="D535">
-        <v>161.9943410959444</v>
+        <v>166.7574493179426</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>125.5143738702863</v>
+        <v>139.8337633765484</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>156.6099113199978</v>
+        <v>139.3095967606622</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>118.9227352983615</v>
+        <v>102.018291</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>124.4627259913634</v>
+        <v>122.0976699958697</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>283</v>
       </c>
       <c r="D552">
-        <v>109.2759279298899</v>
+        <v>111.7523903583341</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>112.4823083261619</v>
+        <v>143.5371451792424</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>233.7133876979573</v>
+        <v>234.0107217122839</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>156.6514722746157</v>
+        <v>156.1606618378013</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="D577">
-        <v>231.4660263747427</v>
+        <v>231.5206683820793</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>667.507945759833</v>
+        <v>667.0127741909386</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="D602">
-        <v>1092.656010132131</v>
+        <v>1424.774302835238</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1053.078910847561</v>
+        <v>1026.432177273483</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -9840,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="D614">
-        <v>145.710723285348</v>
+        <v>153.2785564383754</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="D615">
-        <v>129.0316216399628</v>
+        <v>128.9666515839027</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9896,7 +9896,7 @@
         <v>70</v>
       </c>
       <c r="D618">
-        <v>466.8448679856751</v>
+        <v>458.5960175493339</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="D620">
-        <v>249.8492127858761</v>
+        <v>228.0604090509854</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>119.1991622988992</v>
+        <v>119.1897677137147</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>116.6173475993399</v>
+        <v>113.6301726609149</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10134,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="D635">
-        <v>158.1843708691446</v>
+        <v>153.6933853377023</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>88</v>
       </c>
       <c r="D636">
-        <v>140.8084650880089</v>
+        <v>125.55111</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.4631245790486</v>
+        <v>120.3143563575878</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>124.6917956278192</v>
+        <v>123.1632721602804</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10610,7 +10610,7 @@
         <v>121</v>
       </c>
       <c r="D669">
-        <v>188.358465144087</v>
+        <v>186.684823</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>103.0613889313331</v>
+        <v>102.303717</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>138.2072015449858</v>
+        <v>140.923767121705</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11002,7 +11002,7 @@
         <v>149</v>
       </c>
       <c r="D697">
-        <v>126.6911123229875</v>
+        <v>133.7779403111611</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="D699">
-        <v>140.6786898859526</v>
+        <v>139.19785</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -11086,7 +11086,7 @@
         <v>155</v>
       </c>
       <c r="D703">
-        <v>140.2179746490371</v>
+        <v>143.3102534176958</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>128.572624666689</v>
+        <v>130.6983843163767</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11254,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="D715">
-        <v>118.6815838180426</v>
+        <v>117.345154</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>66.091302</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>101.92255624965</v>
+        <v>95.895421</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.17613745503657</v>
+        <v>92.40810616613385</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>61.84435307373223</v>
+        <v>65.303793</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>88.79687193860505</v>
+        <v>95.54013683994442</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12136,7 +12136,7 @@
         <v>230</v>
       </c>
       <c r="D778">
-        <v>192.8807354210589</v>
+        <v>132.472014</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>109.5318407273826</v>
+        <v>107.004161</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>114.2463140939597</v>
+        <v>106.39188</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>134.5756560324925</v>
+        <v>123.8097937154755</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>118.7453387610152</v>
+        <v>117.1708039223211</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>188.301233612304</v>
+        <v>150.846198</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6496016872086</v>
+        <v>102.5041594642034</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>121.7738386752327</v>
+        <v>117.9389816780355</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>109.4616057557012</v>
+        <v>116.8152993723668</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12640,7 +12640,7 @@
         <v>266</v>
       </c>
       <c r="D814">
-        <v>136.499224133823</v>
+        <v>138.5745778102859</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>87.31518506456764</v>
+        <v>106.3050482272678</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>136.1738115050478</v>
+        <v>121.131023</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>129.0455586757638</v>
+        <v>110.702191</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>120.7572776885814</v>
+        <v>118.4626330765335</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12878,7 +12878,7 @@
         <v>283</v>
       </c>
       <c r="D831">
-        <v>99.14767773678371</v>
+        <v>101.394609</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>94.13005727967222</v>
+        <v>120.118087</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>195.4389152489672</v>
+        <v>195.7624467464704</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>159.6256252061577</v>
+        <v>157.8709606461584</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>183.5190419782544</v>
+        <v>183.5605062233779</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>507.0976797651477</v>
+        <v>506.298251120847</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13578,7 +13578,7 @@
         <v>54</v>
       </c>
       <c r="D881">
-        <v>272.149190553003</v>
+        <v>354.87030652075</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>561.1413842157096</v>
+        <v>546.9424625503324</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
       <c r="D893">
-        <v>173.7134997177687</v>
+        <v>182.7357237013673</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13760,7 +13760,7 @@
         <v>67</v>
       </c>
       <c r="D894">
-        <v>152.9494424811263</v>
+        <v>152.8807800191605</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="D897">
-        <v>386.6038858884982</v>
+        <v>379.7728423202942</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13830,7 +13830,7 @@
         <v>72</v>
       </c>
       <c r="D899">
-        <v>381.0409371649707</v>
+        <v>332.9407644697729</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>137.4067564496989</v>
+        <v>137.3645746859516</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>135.0541855890316</v>
+        <v>126.5284536773682</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -14040,7 +14040,7 @@
         <v>87</v>
       </c>
       <c r="D914">
-        <v>136.6027475162544</v>
+        <v>132.7244821776499</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -14054,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="D915">
-        <v>175.0693391350911</v>
+        <v>156.0996339363473</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>133.6632951384065</v>
+        <v>132.8999651041107</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14516,7 +14516,7 @@
         <v>121</v>
       </c>
       <c r="D948">
-        <v>146.860174830417</v>
+        <v>145.555262</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>149.0744284207075</v>
+        <v>152.0045974429417</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>149</v>
       </c>
       <c r="D976">
-        <v>114.7840189410555</v>
+        <v>121.2047897679206</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14936,7 +14936,7 @@
         <v>151</v>
       </c>
       <c r="D978">
-        <v>141.5422219768953</v>
+        <v>139.2660654151207</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14992,7 +14992,7 @@
         <v>155</v>
       </c>
       <c r="D982">
-        <v>146.2040891200328</v>
+        <v>149.4283818814179</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>143.2433435450886</v>
+        <v>145.611662</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15160,7 +15160,7 @@
         <v>167</v>
       </c>
       <c r="D994">
-        <v>120.103708846776</v>
+        <v>118.751265</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>68.463735</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>107.9457107739796</v>
+        <v>101.5623995385276</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>97.85009250002692</v>
+        <v>98.09634017827285</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>53.55124603025811</v>
+        <v>56.54678740810382</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16042,7 +16042,7 @@
         <v>230</v>
       </c>
       <c r="D1057">
-        <v>207.2687824406672</v>
+        <v>142.3538384447969</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>133.0961657220932</v>
+        <v>130.0246891756027</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>87.64840774964486</v>
+        <v>81.62257971685678</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>128.1629943461732</v>
+        <v>112.980403344041</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>123.2089729192769</v>
+        <v>121.3046818815116</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>242.387753176867</v>
+        <v>194.1743572629663</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>119.2001577054959</v>
+        <v>115.4463501240248</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>125.4028319507431</v>
+        <v>133.8274663096259</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16546,7 +16546,7 @@
         <v>266</v>
       </c>
       <c r="D1093">
-        <v>133.0738885421897</v>
+        <v>135.4009603158823</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>113.6921631907036</v>
+        <v>128.3711629209133</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>142.0993694215497</v>
+        <v>126.401999</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>129.4130187184758</v>
+        <v>111.0174179032006</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>152.0067521598481</v>
+        <v>149.1183011984245</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>283</v>
       </c>
       <c r="D1110">
-        <v>107.5573282843086</v>
+        <v>109.994843</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>113.1655964680317</v>
+        <v>144.4090798921614</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>264.5978290065742</v>
+        <v>264.8909583512265</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>191.4510353558783</v>
+        <v>187.8399271891824</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>1184.573192861212</v>
+        <v>1184.681285851394</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1361.26586363259</v>
+        <v>1359.053187977647</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>54</v>
       </c>
       <c r="D1160">
-        <v>1740.031640866879</v>
+        <v>2268.923014231685</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6815.178248703104</v>
+        <v>6642.729406377621</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>66</v>
       </c>
       <c r="D1172">
-        <v>186.3612501904776</v>
+        <v>196.0403651919813</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -17666,7 +17666,7 @@
         <v>67</v>
       </c>
       <c r="D1173">
-        <v>170.9607008527862</v>
+        <v>170.9167847314534</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>70</v>
       </c>
       <c r="D1176">
-        <v>370.5357436528525</v>
+        <v>363.9886138881002</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>104672.0754886391</v>
+        <v>68816.73283002005</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>132.7342984012139</v>
+        <v>132.6924080316959</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -17932,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="D1192">
-        <v>126.7961514302994</v>
+        <v>123.1850107792552</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>87</v>
       </c>
       <c r="D1193">
-        <v>112.5464706802086</v>
+        <v>109.351183</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -17960,7 +17960,7 @@
         <v>88</v>
       </c>
       <c r="D1194">
-        <v>145.1519637533879</v>
+        <v>129.4239672062838</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>135.6526290021284</v>
+        <v>134.5558590864038</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18422,7 +18422,7 @@
         <v>121</v>
       </c>
       <c r="D1227">
-        <v>134.9588527066925</v>
+        <v>133.759688</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>152.4632959593669</v>
+        <v>155.4600756993977</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="D1255">
-        <v>107.536624794116</v>
+        <v>113.551992</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -18842,7 +18842,7 @@
         <v>151</v>
       </c>
       <c r="D1257">
-        <v>126.1066384191713</v>
+        <v>123.9493985050365</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>155</v>
       </c>
       <c r="D1261">
-        <v>128.5105249425471</v>
+        <v>131.344615</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>133.4600056782346</v>
+        <v>135.666571</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>83.28362199999999</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19808,7 +19808,7 @@
         <v>220</v>
       </c>
       <c r="D1326">
-        <v>107.7123856722531</v>
+        <v>107.9834526095696</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>59.91466415254985</v>
+        <v>63.2661614362411</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>96.46925695964839</v>
+        <v>103.795165410163</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>107.3825503355705</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>140.1730720213926</v>
+        <v>123.9234693630927</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>116.7631595934386</v>
+        <v>115.2242392013246</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>135.7759713197292</v>
+        <v>108.7687460163293</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>108.3227151562478</v>
+        <v>104.911456</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>131.9517149176955</v>
+        <v>140.816307</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20452,7 +20452,7 @@
         <v>266</v>
       </c>
       <c r="D1372">
-        <v>151.765194340352</v>
+        <v>154.4482773228251</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>98.9890400931337</v>
+        <v>117.0390406971025</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>165.6304325130152</v>
+        <v>147.333643</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>141.19262266401</v>
+        <v>121.122593</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>121.3773492168</v>
+        <v>119.0709219294671</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20690,7 +20690,7 @@
         <v>283</v>
       </c>
       <c r="D1389">
-        <v>113.4739686011679</v>
+        <v>116.045569</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>112.406969243806</v>
+        <v>143.441006</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>214.0076559512754</v>
+        <v>214.2786274500999</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>150.7719330080014</v>
+        <v>147.1811522009992</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>181.2285940301685</v>
+        <v>181.2538663064809</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>384.4464025791208</v>
+        <v>383.9588279429709</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21390,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="D1439">
-        <v>494.8426019088783</v>
+        <v>645.2525008878497</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>918.4514628735652</v>
+        <v>895.2112942785864</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21558,7 +21558,7 @@
         <v>66</v>
       </c>
       <c r="D1451">
-        <v>179.9607632735246</v>
+        <v>189.3074537561355</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21572,7 +21572,7 @@
         <v>67</v>
       </c>
       <c r="D1452">
-        <v>138.6527973626698</v>
+        <v>138.6140224752851</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -21614,7 +21614,7 @@
         <v>70</v>
       </c>
       <c r="D1455">
-        <v>727.1416947881651</v>
+        <v>714.2935657893058</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21642,7 +21642,7 @@
         <v>72</v>
       </c>
       <c r="D1457">
-        <v>634.126483164182</v>
+        <v>493.7564418382781</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>138.0570508741245</v>
+        <v>138.0168502129338</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -21866,7 +21866,7 @@
         <v>88</v>
       </c>
       <c r="D1473">
-        <v>150.8417120772836</v>
+        <v>134.4972006744511</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.6088049817671</v>
+        <v>118.42121550019</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>127.5428878942334</v>
+        <v>126.5480716299548</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22328,7 +22328,7 @@
         <v>121</v>
       </c>
       <c r="D1506">
-        <v>148.5354775818311</v>
+        <v>147.215679</v>
       </c>
     </row>
     <row r="1507" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>125.0168761318404</v>
+        <v>124.097795</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>152.4059356749318</v>
+        <v>155.4015879558113</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22720,7 +22720,7 @@
         <v>149</v>
       </c>
       <c r="D1534">
-        <v>128.0289393534694</v>
+        <v>135.1906025046558</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22748,7 +22748,7 @@
         <v>151</v>
       </c>
       <c r="D1536">
-        <v>158.01719328673</v>
+        <v>155.0123597144631</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22804,7 +22804,7 @@
         <v>155</v>
       </c>
       <c r="D1540">
-        <v>145.7760988556191</v>
+        <v>148.9909529896731</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>125.1486650635821</v>
+        <v>127.2178145663951</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22972,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="D1552">
-        <v>107.6303944205393</v>
+        <v>106.4184079959915</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>100.644007</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>107.0739495795929</v>
+        <v>100.7421894709699</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23714,7 +23714,7 @@
         <v>220</v>
       </c>
       <c r="D1605">
-        <v>100.3438876519744</v>
+        <v>100.5964111675803</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>71.53777114220627</v>
+        <v>75.53944</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>130.8704538614181</v>
+        <v>140.808801</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23854,7 +23854,7 @@
         <v>230</v>
       </c>
       <c r="D1615">
-        <v>159.3221234728787</v>
+        <v>109.423694</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>92.99597315436242</v>
+        <v>86.60250000000001</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>165.8527126235022</v>
+        <v>132.7710716693459</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>135.1855849485271</v>
+        <v>132.7038999601259</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>188.5027322071591</v>
+        <v>151.0076164695083</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>103.2514765735866</v>
+        <v>99.99991900000001</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>113.0690060518546</v>
+        <v>120.6650468947228</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24358,7 +24358,7 @@
         <v>266</v>
       </c>
       <c r="D1651">
-        <v>129.6084891439989</v>
+        <v>132.3999531437817</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>120.9125544395387</v>
+        <v>138.366731</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>115.372626366358</v>
+        <v>102.627694</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>142.2913570966485</v>
+        <v>122.0651462367667</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>119.046400310114</v>
+        <v>116.784266</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>283</v>
       </c>
       <c r="D1668">
-        <v>105.8872132167706</v>
+        <v>108.286879</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>108.7182025914033</v>
+        <v>138.733821</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>163.2818917008267</v>
+        <v>163.4447388780466</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>150.7522887689051</v>
+        <v>149.0086535127985</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>183.7799448726827</v>
+        <v>183.8335858908498</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>410.8530628879122</v>
+        <v>410.6658830770915</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25296,7 +25296,7 @@
         <v>54</v>
       </c>
       <c r="D1718">
-        <v>204.4944691790317</v>
+        <v>266.651592135556</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>386.9522223131141</v>
+        <v>377.1609211412235</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25464,7 +25464,7 @@
         <v>66</v>
       </c>
       <c r="D1730">
-        <v>148.3628914722216</v>
+        <v>156.0684712912425</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.7614742230866</v>
+        <v>137.7138411155562</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25520,7 +25520,7 @@
         <v>70</v>
       </c>
       <c r="D1734">
-        <v>261.5616141347462</v>
+        <v>256.9399875884483</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>153.4445745775261</v>
+        <v>138.2654991141825</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>134.1536420867526</v>
+        <v>134.1138737752799</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -25744,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="D1750">
-        <v>119.1920443893462</v>
+        <v>115.5984999129681</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25772,7 +25772,7 @@
         <v>88</v>
       </c>
       <c r="D1752">
-        <v>132.646857833275</v>
+        <v>118.2738568208291</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.1068952670087</v>
+        <v>118.9170844875236</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>139.2114620044041</v>
+        <v>138.0726941738955</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26234,7 +26234,7 @@
         <v>121</v>
       </c>
       <c r="D1785">
-        <v>166.6093876789631</v>
+        <v>165.128995</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.86522758055264</v>
+        <v>97.1457560426645</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>133.2598705107166</v>
+        <v>135.8791926078336</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26626,7 +26626,7 @@
         <v>149</v>
       </c>
       <c r="D1813">
-        <v>106.2337305682202</v>
+        <v>112.1762166769505</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -26654,7 +26654,7 @@
         <v>151</v>
       </c>
       <c r="D1815">
-        <v>120.1131251175332</v>
+        <v>117.8313572309179</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26710,7 +26710,7 @@
         <v>155</v>
       </c>
       <c r="D1819">
-        <v>120.7155581120541</v>
+        <v>123.3777428878007</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>126.1057952880597</v>
+        <v>128.1907695344055</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26878,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="D1831">
-        <v>123.0366439721165</v>
+        <v>121.6511734178279</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>53.008748</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>102.6280480242704</v>
+        <v>96.55919390001979</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.64918288282539</v>
+        <v>91.8798254700874</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>58.14739835016496</v>
+        <v>61.40003859075949</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>102.5801102549732</v>
+        <v>110.370079</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27760,7 +27760,7 @@
         <v>230</v>
       </c>
       <c r="D1894">
-        <v>160.2524004663927</v>
+        <v>110.0626155939043</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>133.2301575774967</v>
+        <v>130.1555888845191</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>344.1608215995309</v>
+        <v>320.4997651145632</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>143.7466430898103</v>
+        <v>128.2345200488367</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>117.2784368302491</v>
+        <v>115.6514831142873</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>260.3783394228555</v>
+        <v>208.5864324413264</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1303002123044</v>
+        <v>114.9703928250578</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>130.0869060617504</v>
+        <v>125.990257</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>115.1788423346107</v>
+        <v>122.9166231921407</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28264,7 +28264,7 @@
         <v>266</v>
       </c>
       <c r="D1930">
-        <v>137.2303309894263</v>
+        <v>138.9402907126442</v>
       </c>
     </row>
     <row r="1931" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>109.3510458730288</v>
+        <v>125.0902631206751</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>139.1816978175244</v>
+        <v>123.8066354549285</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>131.4026485465981</v>
+        <v>112.7242289202733</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>141.4042638948651</v>
+        <v>138.7172827167724</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28502,7 +28502,7 @@
         <v>283</v>
       </c>
       <c r="D1947">
-        <v>110.9393208244317</v>
+        <v>113.4534798442948</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>95.81672205468443</v>
+        <v>122.270417</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>172.4910413217862</v>
+        <v>172.5792957392211</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>171.6799678024941</v>
+        <v>169.9875656641998</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -28852,7 +28852,7 @@
         <v>29</v>
       </c>
       <c r="D1972">
-        <v>283.4296179885567</v>
+        <v>283.5399662898641</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>38</v>
       </c>
       <c r="D1981">
-        <v>772.9872082708902</v>
+        <v>771.1037409673992</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29202,7 +29202,7 @@
         <v>54</v>
       </c>
       <c r="D1997">
-        <v>321.7972733949352</v>
+        <v>419.6091739797465</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>197.1190403120919</v>
+        <v>192.1312103446807</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>66</v>
       </c>
       <c r="D2009">
-        <v>176.2007099105887</v>
+        <v>185.3521130742186</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -29384,7 +29384,7 @@
         <v>67</v>
       </c>
       <c r="D2010">
-        <v>169.0637368305354</v>
+        <v>169.0552008965055</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -29426,7 +29426,7 @@
         <v>70</v>
       </c>
       <c r="D2013">
-        <v>691.8771045033313</v>
+        <v>679.6520782756638</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -29454,7 +29454,7 @@
         <v>72</v>
       </c>
       <c r="D2015">
-        <v>129.69962315478</v>
+        <v>123.9195563514397</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>183.7133704608759</v>
+        <v>183.5463736373736</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29650,7 +29650,7 @@
         <v>86</v>
       </c>
       <c r="D2029">
-        <v>122.9073384466716</v>
+        <v>115.1992387304699</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>127.6815244158303</v>
+        <v>127.4473645177403</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>132.6514562609138</v>
+        <v>131.5099581476151</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30140,7 +30140,7 @@
         <v>121</v>
       </c>
       <c r="D2064">
-        <v>88.87528633640846</v>
+        <v>88.085593</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>111.214635801803</v>
+        <v>110.397024</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>149.757001495145</v>
+        <v>152.700587</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30532,7 +30532,7 @@
         <v>149</v>
       </c>
       <c r="D2092">
-        <v>111.2538294786672</v>
+        <v>117.4771291094327</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -30560,7 +30560,7 @@
         <v>151</v>
       </c>
       <c r="D2094">
-        <v>123.3111782153398</v>
+        <v>121.474907</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -30616,7 +30616,7 @@
         <v>155</v>
       </c>
       <c r="D2098">
-        <v>149.4700294256835</v>
+        <v>152.7663471745365</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>128.5408615551094</v>
+        <v>130.6660960483642</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30784,7 +30784,7 @@
         <v>167</v>
       </c>
       <c r="D2110">
-        <v>118.847556215756</v>
+        <v>117.5092574433724</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>53.882335</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>95.41464926453649</v>
+        <v>89.77235557532909</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31526,7 +31526,7 @@
         <v>220</v>
       </c>
       <c r="D2163">
-        <v>103.746311176746</v>
+        <v>104.0073971665609</v>
       </c>
     </row>
     <row r="2164" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>89.65948398555359</v>
+        <v>94.67484243385681</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>121.2759678693398</v>
+        <v>130.4857064519637</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>101.4209764272408</v>
+        <v>99.08047211046826</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>201.3422818791946</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>115.3583141738976</v>
+        <v>111.2374262758303</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>127.6353167896191</v>
+        <v>126.5625273637067</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>111.0975969845057</v>
+        <v>88.999152</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>114.4612730980836</v>
+        <v>110.8567007299666</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>114.326829832295</v>
+        <v>122.007372</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32170,7 +32170,7 @@
         <v>266</v>
       </c>
       <c r="D2209">
-        <v>137.1408555729046</v>
+        <v>138.2743921876615</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>102.0148294441361</v>
+        <v>123.8109497187822</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>122.8060157430823</v>
+        <v>109.239935</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>133.6447815792176</v>
+        <v>114.6476507084504</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>127.0325643799687</v>
+        <v>124.618676</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>283</v>
       </c>
       <c r="D2226">
-        <v>104.0410081129626</v>
+        <v>106.3988343285818</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>108.6544451536056</v>
+        <v>138.652461</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>172.2776489903067</v>
+        <v>172.6395925943148</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>168.8273260447734</v>
+        <v>164.777634321423</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32758,7 +32758,7 @@
         <v>29</v>
       </c>
       <c r="D2251">
-        <v>207.5785614809948</v>
+        <v>207.6315342409538</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>938.6238418938756</v>
+        <v>937.5483126514665</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -33108,7 +33108,7 @@
         <v>54</v>
       </c>
       <c r="D2276">
-        <v>515.9428338220475</v>
+        <v>672.7662544708387</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1462.063102686986</v>
+        <v>1425.06757883357</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33276,7 +33276,7 @@
         <v>66</v>
       </c>
       <c r="D2288">
-        <v>163.7366817963925</v>
+        <v>172.240736</v>
       </c>
     </row>
     <row r="2289" spans="1:4">
@@ -33290,7 +33290,7 @@
         <v>67</v>
       </c>
       <c r="D2289">
-        <v>139.306863340266</v>
+        <v>139.1399118085453</v>
       </c>
     </row>
     <row r="2290" spans="1:4">
@@ -33332,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="D2292">
-        <v>6819.890722387179</v>
+        <v>6699.387612212923</v>
       </c>
     </row>
     <row r="2293" spans="1:4">
@@ -33360,7 +33360,7 @@
         <v>72</v>
       </c>
       <c r="D2294">
-        <v>1063.639755644193</v>
+        <v>1033.234516019847</v>
       </c>
     </row>
     <row r="2295" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>139.5015996518906</v>
+        <v>139.374812185239</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>120.3739488320729</v>
+        <v>117.9138967503006</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -33570,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="D2309">
-        <v>107.6498485142868</v>
+        <v>104.59358</v>
       </c>
     </row>
     <row r="2310" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>134.2421726170654</v>
+        <v>133.1746727358096</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34046,7 +34046,7 @@
         <v>121</v>
       </c>
       <c r="D2343">
-        <v>195.4743587747861</v>
+        <v>193.737489</v>
       </c>
     </row>
     <row r="2344" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>122.338605508067</v>
+        <v>124.743262</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34438,7 +34438,7 @@
         <v>149</v>
       </c>
       <c r="D2371">
-        <v>120.4759867517223</v>
+        <v>127.215154</v>
       </c>
     </row>
     <row r="2372" spans="1:4">
@@ -34466,7 +34466,7 @@
         <v>151</v>
       </c>
       <c r="D2373">
-        <v>141.6363189568066</v>
+        <v>139.164136729105</v>
       </c>
     </row>
     <row r="2374" spans="1:4">
@@ -34522,7 +34522,7 @@
         <v>155</v>
       </c>
       <c r="D2377">
-        <v>116.1601190049216</v>
+        <v>118.721841</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>118.9735832091395</v>
+        <v>120.9406367963273</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34690,7 +34690,7 @@
         <v>167</v>
       </c>
       <c r="D2389">
-        <v>132.7123791555475</v>
+        <v>131.2179536935586</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>60.546817</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>106.1552426706517</v>
+        <v>99.87780979830228</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.69826515819447</v>
+        <v>96.9416141697001</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>85.01326112634585</v>
+        <v>89.76871987376097</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>107.8961206061705</v>
+        <v>116.089789</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35572,7 +35572,7 @@
         <v>230</v>
       </c>
       <c r="D2452">
-        <v>139.9048600958474</v>
+        <v>96.08776400000001</v>
       </c>
     </row>
     <row r="2453" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>118.8865612557772</v>
+        <v>116.1430014949914</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>107.5424973415846</v>
+        <v>100.1489506493507</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>117.2700960464895</v>
+        <v>111.9669934978357</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>121.7911797399114</v>
+        <v>120.1178512097448</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>102.3454071798041</v>
+        <v>81.98786200000001</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6282316450168</v>
+        <v>112.4722203542584</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>103.5092801495106</v>
+        <v>100.2496039204084</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>115.0782432142341</v>
+        <v>122.8092657650112</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36076,7 +36076,7 @@
         <v>266</v>
       </c>
       <c r="D2488">
-        <v>142.4002650431</v>
+        <v>144.4597130854733</v>
       </c>
     </row>
     <row r="2489" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>95.36095469410492</v>
+        <v>108.4166496618314</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>124.4749970313849</v>
+        <v>110.724548</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>122.2121475650099</v>
+        <v>104.840125</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>144.7675304951922</v>
+        <v>142.016640112362</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36314,7 +36314,7 @@
         <v>283</v>
       </c>
       <c r="D2505">
-        <v>109.3049919099815</v>
+        <v>111.782113</v>
       </c>
     </row>
     <row r="2506" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>87.62247570992893</v>
+        <v>111.813850587697</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/indprod_4_2024.xlsx
+++ b/IPC2024_base2010/indprod_4_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>192.9454838999896</v>
+        <v>192.9442620826847</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>153.5445268726179</v>
+        <v>153.5438740107822</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>157.5301147301788</v>
+        <v>157.5261055138433</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>241.6987071766775</v>
+        <v>241.6926917295383</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.9676637248744</v>
+        <v>150.9704097627865</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>360.3853102324366</v>
+        <v>360.3834800472159</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>209.4223291691152</v>
+        <v>209.4150824559185</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>300.2461949761405</v>
+        <v>300.3214714207492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.556860229471</v>
+        <v>183.5531085774356</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D27">
-        <v>448.8823452807118</v>
+        <v>448.9553498561221</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>521.1170243913987</v>
+        <v>521.1031625080002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>133.2829118112474</v>
+        <v>133.2830291974996</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>153.9030659117639</v>
+        <v>153.9016152405118</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>145.6491203103629</v>
+        <v>145.6515939631513</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>120.0074079834027</v>
+        <v>120.0074745092024</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5461715794161</v>
+        <v>121.5459131005358</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.0364093177682</v>
+        <v>120.0363461235733</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>138.8364024506106</v>
+        <v>138.8365160708424</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3400,7 +3400,7 @@
         <v>164</v>
       </c>
       <c r="D154">
-        <v>140.7509230068592</v>
+        <v>140.7524726628406</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>169</v>
       </c>
       <c r="D159">
-        <v>122.5381224599708</v>
+        <v>122.5363960450671</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.8863313116883</v>
+        <v>134.8884997986678</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6203597138624</v>
+        <v>138.6152768832737</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3955451872329</v>
+        <v>137.411785578325</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9323604657645</v>
+        <v>126.9327983226843</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.2606269275563</v>
+        <v>185.2648228422628</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>113.3585741129442</v>
+        <v>113.3498536965874</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.47088791412571</v>
+        <v>92.47154895534864</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>126.6015217613643</v>
+        <v>126.6021573326763</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.5538684960053</v>
+        <v>154.5603399801809</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4842,7 +4842,7 @@
         <v>267</v>
       </c>
       <c r="D257">
-        <v>130.4400895694194</v>
+        <v>130.4383893677954</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4912,7 +4912,7 @@
         <v>272</v>
       </c>
       <c r="D262">
-        <v>138.0254802082972</v>
+        <v>138.0297660804278</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4982,7 +4982,7 @@
         <v>277</v>
       </c>
       <c r="D267">
-        <v>142.9146688183363</v>
+        <v>142.9149504725177</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,7 +4996,7 @@
         <v>278</v>
       </c>
       <c r="D268">
-        <v>148.3262244807647</v>
+        <v>148.3259008101964</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.7262368996378</v>
+        <v>183.7224450238573</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>143.7994531263738</v>
+        <v>143.7973252000704</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5346,7 +5346,7 @@
         <v>24</v>
       </c>
       <c r="D293">
-        <v>130.5980255989237</v>
+        <v>130.5887906008876</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5374,7 +5374,7 @@
         <v>26</v>
       </c>
       <c r="D295">
-        <v>172.9946207150593</v>
+        <v>172.9715289803526</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5388,7 +5388,7 @@
         <v>27</v>
       </c>
       <c r="D296">
-        <v>150.5679982597691</v>
+        <v>150.5733100949561</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>153.5166027742567</v>
+        <v>153.5103800930254</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>360.1185877622244</v>
+        <v>360.2739264034346</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="D301">
-        <v>199.1127260746281</v>
+        <v>199.0959176737934</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="D306">
-        <v>421.3078849811478</v>
+        <v>421.5238046343906</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>348.3860504748088</v>
+        <v>348.348171660667</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5892,7 +5892,7 @@
         <v>63</v>
       </c>
       <c r="D332">
-        <v>155.1819381115768</v>
+        <v>155.1824347038881</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6144,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="D350">
-        <v>158.5627617649583</v>
+        <v>158.5722128439999</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>121.9380169170067</v>
+        <v>121.9381608283841</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.1320840174678</v>
+        <v>121.1318577135502</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>148.4339616319419</v>
+        <v>148.4342919167751</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7376,7 +7376,7 @@
         <v>169</v>
       </c>
       <c r="D438">
-        <v>114.0239697633976</v>
+        <v>114.0191936449669</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.8623625779793</v>
+        <v>144.8683265717344</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.3859548335117</v>
+        <v>140.3741025193235</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6800607789761</v>
+        <v>147.7268805157686</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.5877505985031</v>
+        <v>123.5893126278566</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>178</v>
       </c>
       <c r="D447">
-        <v>206.1591286634809</v>
+        <v>206.1672068399098</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.797433276306</v>
+        <v>112.7927863883887</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.32645426748721</v>
+        <v>90.32817575648032</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>133.9155857704338</v>
+        <v>133.9170402774581</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>158.2093586747187</v>
+        <v>158.2313049519235</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8748,7 +8748,7 @@
         <v>267</v>
       </c>
       <c r="D536">
-        <v>141.9090021091046</v>
+        <v>141.9041423587158</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -8818,7 +8818,7 @@
         <v>272</v>
       </c>
       <c r="D541">
-        <v>153.5303893016889</v>
+        <v>153.540906601547</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8888,7 +8888,7 @@
         <v>277</v>
       </c>
       <c r="D546">
-        <v>146.3304546415163</v>
+        <v>146.3310500128046</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8902,7 +8902,7 @@
         <v>278</v>
       </c>
       <c r="D547">
-        <v>147.7033097683573</v>
+        <v>147.702666766561</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>111.2938047778635</v>
+        <v>111.2928344778627</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>111.383276752394</v>
+        <v>111.3798644228181</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>113.4010556265087</v>
+        <v>113.3903729255</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.0566291919473</v>
+        <v>119.054431503659</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>114.3052980265498</v>
+        <v>114.2925648385263</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -24960,7 +24960,7 @@
         <v>30</v>
       </c>
       <c r="D1694">
-        <v>206.8217274465339</v>
+        <v>206.7904736664862</v>
       </c>
     </row>
     <row r="1695" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>410.6658830770915</v>
+        <v>410.6740765300381</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>137.7138411155562</v>
+        <v>137.7049078691555</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26836,7 +26836,7 @@
         <v>164</v>
       </c>
       <c r="D1828">
-        <v>111.335286871566</v>
+        <v>111.3487187544259</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.9823605648984</v>
+        <v>114.9651186394464</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>115.1208204545391</v>
+        <v>115.1042129102524</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
